--- a/Escala de músicos.xlsx
+++ b/Escala de músicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raniel/Documents/gitworkspace/python/worship-scale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C14B5-19DD-4A45-8E8A-993677EAF7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86837626-DCA2-DB41-BCC7-A9660F34CA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,6 +106,9 @@
     <t>Helen</t>
   </si>
   <si>
+    <t>Vinícius</t>
+  </si>
+  <si>
     <t>Jonatas</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>Belle</t>
   </si>
   <si>
+    <t>Kaio</t>
+  </si>
+  <si>
     <t>Paty</t>
   </si>
   <si>
@@ -154,9 +160,6 @@
     <t>23/2/2020</t>
   </si>
   <si>
-    <t>Vinícius</t>
-  </si>
-  <si>
     <t>Geninha</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t>15/3/2020</t>
-  </si>
-  <si>
-    <t>Kaio</t>
   </si>
   <si>
     <t>22/3/2020</t>
@@ -663,16 +663,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,56 +771,56 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -833,71 +829,71 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -906,89 +902,89 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -996,34 +992,34 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1031,34 +1027,34 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1066,34 +1062,34 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1101,10 +1097,10 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -1113,22 +1109,22 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1136,34 +1132,34 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1171,13 +1167,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1186,19 +1182,19 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1206,10 +1202,10 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1218,22 +1214,22 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1241,13 +1237,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1256,19 +1252,19 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1276,34 +1272,34 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1311,34 +1307,34 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1346,34 +1342,34 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1381,34 +1377,34 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1416,34 +1412,34 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1451,13 +1447,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -1466,19 +1462,19 @@
         <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
         <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1489,10 +1485,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1501,19 +1497,19 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
         <v>17</v>
       </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
-      </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1524,31 +1520,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1556,13 +1552,13 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1574,16 +1570,16 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1591,34 +1587,34 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1626,7 +1622,7 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
@@ -1638,22 +1634,22 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1661,34 +1657,34 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1696,13 +1692,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -1711,19 +1707,19 @@
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1731,34 +1727,34 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
         <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1769,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -1778,22 +1774,22 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1801,10 +1797,10 @@
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1816,19 +1812,19 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1836,13 +1832,13 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -1854,16 +1850,16 @@
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" t="s">
         <v>17</v>
       </c>
-      <c r="J34" t="s">
-        <v>44</v>
-      </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1871,34 +1867,34 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1906,10 +1902,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -1921,19 +1917,19 @@
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1941,10 +1937,10 @@
         <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -1956,19 +1952,19 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1976,34 +1972,34 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s">
         <v>26</v>
-      </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
       </c>
       <c r="K38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2011,10 +2007,10 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2026,19 +2022,19 @@
         <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2046,7 +2042,7 @@
         <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -2058,22 +2054,22 @@
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
         <v>17</v>
       </c>
-      <c r="H40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2081,34 +2077,34 @@
         <v>83</v>
       </c>
       <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
       <c r="E41" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2116,10 +2112,10 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -2128,22 +2124,22 @@
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
         <v>17</v>
       </c>
-      <c r="H42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2151,13 +2147,13 @@
         <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -2166,16 +2162,16 @@
         <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
         <v>20</v>
@@ -2186,13 +2182,13 @@
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -2201,19 +2197,19 @@
         <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -2221,34 +2217,34 @@
         <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s">
         <v>26</v>
       </c>
-      <c r="H45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s">
-        <v>51</v>
-      </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2259,31 +2255,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
         <v>42</v>
       </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" t="s">
-        <v>44</v>
-      </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2291,7 +2287,7 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -2303,22 +2299,22 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
         <v>41</v>
       </c>
-      <c r="H47" t="s">
-        <v>27</v>
-      </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2326,13 +2322,13 @@
         <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
@@ -2341,19 +2337,19 @@
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2361,10 +2357,10 @@
         <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2373,22 +2369,22 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2396,34 +2392,34 @@
         <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
